--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.451731666666667</v>
+        <v>7.065029</v>
       </c>
       <c r="H2">
-        <v>16.355195</v>
+        <v>21.195087</v>
       </c>
       <c r="I2">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="J2">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>44.32930588687667</v>
+        <v>26.81314389557767</v>
       </c>
       <c r="R2">
-        <v>398.96375298189</v>
+        <v>241.318295060199</v>
       </c>
       <c r="S2">
-        <v>0.00401910239448961</v>
+        <v>0.002264870627803293</v>
       </c>
       <c r="T2">
-        <v>0.00401910239448961</v>
+        <v>0.002264870627803292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.451731666666667</v>
+        <v>7.065029</v>
       </c>
       <c r="H3">
-        <v>16.355195</v>
+        <v>21.195087</v>
       </c>
       <c r="I3">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="J3">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>1326.822819530358</v>
+        <v>1719.461314495562</v>
       </c>
       <c r="R3">
-        <v>11941.40537577322</v>
+        <v>15475.15183046005</v>
       </c>
       <c r="S3">
-        <v>0.1202959681941829</v>
+        <v>0.1452406119182219</v>
       </c>
       <c r="T3">
-        <v>0.1202959681941828</v>
+        <v>0.1452406119182219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.451731666666667</v>
+        <v>7.065029</v>
       </c>
       <c r="H4">
-        <v>16.355195</v>
+        <v>21.195087</v>
       </c>
       <c r="I4">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="J4">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>182.1900540009289</v>
+        <v>210.547550354759</v>
       </c>
       <c r="R4">
-        <v>1639.71048600836</v>
+        <v>1894.927953192831</v>
       </c>
       <c r="S4">
-        <v>0.01651820319848723</v>
+        <v>0.0177846717420212</v>
       </c>
       <c r="T4">
-        <v>0.01651820319848723</v>
+        <v>0.01778467174202119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.451731666666667</v>
+        <v>7.065029</v>
       </c>
       <c r="H5">
-        <v>16.355195</v>
+        <v>21.195087</v>
       </c>
       <c r="I5">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="J5">
-        <v>0.1922099906071488</v>
+        <v>0.2168972219923977</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>566.6673729187139</v>
+        <v>610.9610480169873</v>
       </c>
       <c r="R5">
-        <v>5100.006356268425</v>
+        <v>5498.649432152886</v>
       </c>
       <c r="S5">
-        <v>0.05137671681998914</v>
+        <v>0.05160706770435135</v>
       </c>
       <c r="T5">
-        <v>0.05137671681998913</v>
+        <v>0.05160706770435134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>47.393928</v>
       </c>
       <c r="I6">
-        <v>0.5569842765993244</v>
+        <v>0.4849997229314377</v>
       </c>
       <c r="J6">
-        <v>0.5569842765993243</v>
+        <v>0.4849997229314376</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>128.457039582384</v>
+        <v>59.95635739738401</v>
       </c>
       <c r="R6">
-        <v>1156.113356241456</v>
+        <v>539.607216576456</v>
       </c>
       <c r="S6">
-        <v>0.01164651656608608</v>
+        <v>0.005064433822018473</v>
       </c>
       <c r="T6">
-        <v>0.01164651656608607</v>
+        <v>0.005064433822018473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>47.393928</v>
       </c>
       <c r="I7">
-        <v>0.5569842765993244</v>
+        <v>0.4849997229314377</v>
       </c>
       <c r="J7">
-        <v>0.5569842765993243</v>
+        <v>0.4849997229314376</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>3844.854505102432</v>
+        <v>3844.854505102433</v>
       </c>
       <c r="R7">
         <v>34603.69054592189</v>
       </c>
       <c r="S7">
-        <v>0.3485925086974134</v>
+        <v>0.3247697498919515</v>
       </c>
       <c r="T7">
-        <v>0.3485925086974133</v>
+        <v>0.3247697498919514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>47.393928</v>
       </c>
       <c r="I8">
-        <v>0.5569842765993244</v>
+        <v>0.4849997229314377</v>
       </c>
       <c r="J8">
-        <v>0.5569842765993243</v>
+        <v>0.4849997229314376</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>527.9485999180159</v>
+        <v>470.801343825096</v>
       </c>
       <c r="R8">
-        <v>4751.537399262144</v>
+        <v>4237.212094425864</v>
       </c>
       <c r="S8">
-        <v>0.04786629160205508</v>
+        <v>0.03976796377599145</v>
       </c>
       <c r="T8">
-        <v>0.04786629160205507</v>
+        <v>0.03976796377599143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>47.393928</v>
       </c>
       <c r="I9">
-        <v>0.5569842765993244</v>
+        <v>0.4849997229314377</v>
       </c>
       <c r="J9">
-        <v>0.5569842765993243</v>
+        <v>0.4849997229314376</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>1642.08330576668</v>
+        <v>1366.158295104976</v>
       </c>
       <c r="R9">
-        <v>14778.74975190012</v>
+        <v>12295.42465594479</v>
       </c>
       <c r="S9">
-        <v>0.1488789597337699</v>
+        <v>0.1153975754414763</v>
       </c>
       <c r="T9">
-        <v>0.1488789597337698</v>
+        <v>0.1153975754414762</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.526644000000001</v>
+        <v>4.745838333333333</v>
       </c>
       <c r="H10">
-        <v>10.579932</v>
+        <v>14.237515</v>
       </c>
       <c r="I10">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115303</v>
       </c>
       <c r="J10">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115302</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>28.675967598696</v>
+        <v>18.01136925790611</v>
       </c>
       <c r="R10">
-        <v>258.083708388264</v>
+        <v>162.102323321155</v>
       </c>
       <c r="S10">
-        <v>0.002599897465896142</v>
+        <v>0.001521396422501535</v>
       </c>
       <c r="T10">
-        <v>0.002599897465896142</v>
+        <v>0.001521396422501535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.526644000000001</v>
+        <v>4.745838333333333</v>
       </c>
       <c r="H11">
-        <v>10.579932</v>
+        <v>14.237515</v>
       </c>
       <c r="I11">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115303</v>
       </c>
       <c r="J11">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115302</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>858.3019160994081</v>
+        <v>1155.025042220882</v>
       </c>
       <c r="R11">
-        <v>7724.717244894673</v>
+        <v>10395.22537998794</v>
       </c>
       <c r="S11">
-        <v>0.07781766975989081</v>
+        <v>0.097563430185253</v>
       </c>
       <c r="T11">
-        <v>0.07781766975989081</v>
+        <v>0.09756343018525296</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.526644000000001</v>
+        <v>4.745838333333333</v>
       </c>
       <c r="H12">
-        <v>10.579932</v>
+        <v>14.237515</v>
       </c>
       <c r="I12">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115303</v>
       </c>
       <c r="J12">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115302</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>117.856031823904</v>
+        <v>141.4324888776883</v>
       </c>
       <c r="R12">
-        <v>1060.704286415136</v>
+        <v>1272.892399899195</v>
       </c>
       <c r="S12">
-        <v>0.01068537957524673</v>
+        <v>0.01194661435912497</v>
       </c>
       <c r="T12">
-        <v>0.01068537957524672</v>
+        <v>0.01194661435912496</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.526644000000001</v>
+        <v>4.745838333333333</v>
       </c>
       <c r="H13">
-        <v>10.579932</v>
+        <v>14.237515</v>
       </c>
       <c r="I13">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115303</v>
       </c>
       <c r="J13">
-        <v>0.1243377795461487</v>
+        <v>0.1456977955115302</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>366.56868182242</v>
+        <v>410.4048775811856</v>
       </c>
       <c r="R13">
-        <v>3299.11813640178</v>
+        <v>3693.64389823067</v>
       </c>
       <c r="S13">
-        <v>0.03323483274511501</v>
+        <v>0.03466635454465074</v>
       </c>
       <c r="T13">
-        <v>0.03323483274511501</v>
+        <v>0.03466635454465073</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.587063</v>
+        <v>4.964321666666666</v>
       </c>
       <c r="H14">
-        <v>10.761189</v>
+        <v>14.892965</v>
       </c>
       <c r="I14">
-        <v>0.1264679532473782</v>
+        <v>0.1524052595646345</v>
       </c>
       <c r="J14">
-        <v>0.1264679532473781</v>
+        <v>0.1524052595646344</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>29.167248625742</v>
+        <v>18.84055552953389</v>
       </c>
       <c r="R14">
-        <v>262.505237631678</v>
+        <v>169.564999765805</v>
       </c>
       <c r="S14">
-        <v>0.002644439303686398</v>
+        <v>0.001591436684803533</v>
       </c>
       <c r="T14">
-        <v>0.002644439303686397</v>
+        <v>0.001591436684803533</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.587063</v>
+        <v>4.964321666666666</v>
       </c>
       <c r="H15">
-        <v>10.761189</v>
+        <v>14.892965</v>
       </c>
       <c r="I15">
-        <v>0.1264679532473782</v>
+        <v>0.1524052595646345</v>
       </c>
       <c r="J15">
-        <v>0.1264679532473781</v>
+        <v>0.1524052595646344</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>873.0064747304493</v>
+        <v>1208.198729056238</v>
       </c>
       <c r="R15">
-        <v>7857.058272574043</v>
+        <v>10873.78856150614</v>
       </c>
       <c r="S15">
-        <v>0.07915085388316008</v>
+        <v>0.1020549408396701</v>
       </c>
       <c r="T15">
-        <v>0.07915085388316007</v>
+        <v>0.1020549408396701</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.587063</v>
+        <v>4.964321666666666</v>
       </c>
       <c r="H16">
-        <v>10.761189</v>
+        <v>14.892965</v>
       </c>
       <c r="I16">
-        <v>0.1264679532473782</v>
+        <v>0.1524052595646345</v>
       </c>
       <c r="J16">
-        <v>0.1264679532473781</v>
+        <v>0.1524052595646344</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>119.8751592398747</v>
+        <v>147.9435917516716</v>
       </c>
       <c r="R16">
-        <v>1078.876433158872</v>
+        <v>1331.492325765045</v>
       </c>
       <c r="S16">
-        <v>0.01086844311910225</v>
+        <v>0.01249659856505476</v>
       </c>
       <c r="T16">
-        <v>0.01086844311910225</v>
+        <v>0.01249659856505475</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.587063</v>
+        <v>4.964321666666666</v>
       </c>
       <c r="H17">
-        <v>10.761189</v>
+        <v>14.892965</v>
       </c>
       <c r="I17">
-        <v>0.1264679532473782</v>
+        <v>0.1524052595646345</v>
       </c>
       <c r="J17">
-        <v>0.1264679532473781</v>
+        <v>0.1524052595646344</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>372.8487920878816</v>
+        <v>429.2986154989744</v>
       </c>
       <c r="R17">
-        <v>3355.639128790935</v>
+        <v>3863.68753949077</v>
       </c>
       <c r="S17">
-        <v>0.03380421694142944</v>
+        <v>0.03626228347510604</v>
       </c>
       <c r="T17">
-        <v>0.03380421694142943</v>
+        <v>0.03626228347510603</v>
       </c>
     </row>
   </sheetData>
